--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documentos\IFNMG\TCC\Desenvolvimento_TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD61AB-6903-48D1-B0FE-25EDCE760C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C70AE1D-969D-45F8-939A-4C569A5C98FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="3750" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="160">
   <si>
     <t>BRKGA</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Tempo ms</t>
   </si>
   <si>
-    <t>Execuções</t>
-  </si>
-  <si>
     <t>UB</t>
   </si>
   <si>
@@ -507,10 +504,16 @@
     <t>%</t>
   </si>
   <si>
-    <t>Individuos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerações </t>
+    <t xml:space="preserve">Mean </t>
+  </si>
+  <si>
+    <t>Exec</t>
+  </si>
+  <si>
+    <t>qtd_ind</t>
+  </si>
+  <si>
+    <t>geracoes</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +580,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -590,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +627,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -900,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F6DFBB-947E-47F8-BED0-3A00C782D62E}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,35 +933,36 @@
     <col min="9" max="9" width="9.140625" style="12"/>
     <col min="10" max="10" width="10.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="15"/>
+    <col min="13" max="13" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>0</v>
@@ -952,12 +971,27 @@
         <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>434</v>
@@ -969,7 +1003,7 @@
         <v>433</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>289</v>
@@ -978,7 +1012,7 @@
         <v>453</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="12">
         <v>1452.06</v>
@@ -990,19 +1024,26 @@
         <f t="shared" ref="K2:K7" si="0">((I2-G2)/G2)*100</f>
         <v>220.54304635761591</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" s="15">
+        <v>1567.88</v>
+      </c>
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13">
+        <v>307</v>
+      </c>
+      <c r="O2" s="13">
         <v>157</v>
       </c>
-      <c r="N2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="10">
+        <f>((L2-G2)/G2)*100</f>
+        <v>246.1103752759382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>357</v>
@@ -1014,7 +1055,7 @@
         <v>418</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>332</v>
@@ -1023,7 +1064,7 @@
         <v>458</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="12">
         <v>1094.18</v>
@@ -1035,19 +1076,26 @@
         <f t="shared" si="0"/>
         <v>138.90393013100436</v>
       </c>
-      <c r="M3" s="1">
-        <v>100</v>
-      </c>
-      <c r="N3" s="1">
-        <v>100</v>
-      </c>
-      <c r="O3" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L3" s="15">
+        <v>1167.6600000000001</v>
+      </c>
+      <c r="M3" s="13">
+        <v>5</v>
+      </c>
+      <c r="N3" s="13">
+        <v>482</v>
+      </c>
+      <c r="O3" s="13">
+        <v>776</v>
+      </c>
+      <c r="P3" s="10">
+        <f t="shared" ref="P3:P7" si="1">((L3-G3)/G3)*100</f>
+        <v>154.94759825327515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>660</v>
@@ -1068,7 +1116,7 @@
         <v>826</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12">
         <v>4856.3599999999997</v>
@@ -1080,10 +1128,26 @@
         <f t="shared" si="0"/>
         <v>487.93704600484256</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" s="15">
+        <v>4920.22</v>
+      </c>
+      <c r="M4" s="13">
+        <v>5</v>
+      </c>
+      <c r="N4" s="13">
+        <v>966</v>
+      </c>
+      <c r="O4" s="13">
+        <v>999</v>
+      </c>
+      <c r="P4" s="10">
+        <f t="shared" si="1"/>
+        <v>495.66828087167079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>592</v>
@@ -1104,7 +1168,7 @@
         <v>848</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="12">
         <v>4678.09</v>
@@ -1116,10 +1180,26 @@
         <f t="shared" si="0"/>
         <v>451.66155660377353</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5" s="15">
+        <v>4702.7700000000004</v>
+      </c>
+      <c r="M5" s="13">
+        <v>4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>882</v>
+      </c>
+      <c r="O5" s="13">
+        <v>463</v>
+      </c>
+      <c r="P5" s="10">
+        <f t="shared" si="1"/>
+        <v>454.57193396226421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>1126</v>
@@ -1140,7 +1220,7 @@
         <v>1439</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="12">
         <v>42740</v>
@@ -1152,10 +1232,26 @@
         <f t="shared" si="0"/>
         <v>2870.1181375955525</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" s="15">
+        <v>44647.11</v>
+      </c>
+      <c r="M6" s="13">
+        <v>4</v>
+      </c>
+      <c r="N6" s="13">
+        <v>287</v>
+      </c>
+      <c r="O6" s="13">
+        <v>428</v>
+      </c>
+      <c r="P6" s="10">
+        <f t="shared" si="1"/>
+        <v>3002.6483669214736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>1535</v>
@@ -1176,7 +1272,7 @@
         <v>2006</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="12">
         <v>27762.9</v>
@@ -1188,10 +1284,26 @@
         <f t="shared" si="0"/>
         <v>1283.9930209371887</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="15">
+        <v>30264.33</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13">
+        <v>521</v>
+      </c>
+      <c r="O7" s="13">
+        <v>203</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="1"/>
+        <v>1408.6904287138586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>218</v>
@@ -1203,7 +1315,7 @@
         <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>161</v>
@@ -1212,7 +1324,7 @@
         <v>225</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="12">
         <v>754.57</v>
@@ -1224,10 +1336,26 @@
         <f>((I8-G8)/G8)*100</f>
         <v>235.36444444444447</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="15">
+        <v>820.77</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2</v>
+      </c>
+      <c r="N8" s="13">
+        <v>560</v>
+      </c>
+      <c r="O8" s="13">
+        <v>511</v>
+      </c>
+      <c r="P8" s="10">
+        <f>((L8-G8)/G8)*100</f>
+        <v>264.78666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>313</v>
@@ -1239,7 +1367,7 @@
         <v>298</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1">
         <v>245</v>
@@ -1248,7 +1376,7 @@
         <v>324</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="12">
         <v>972.11</v>
@@ -1257,13 +1385,29 @@
         <v>2122.08</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" ref="K9:K25" si="1">((I9-G9)/G9)*100</f>
+        <f t="shared" ref="K9:K51" si="2">((I9-G9)/G9)*100</f>
         <v>200.03395061728395</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="15">
+        <v>1070.44</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1</v>
+      </c>
+      <c r="N9" s="13">
+        <v>161</v>
+      </c>
+      <c r="O9" s="13">
+        <v>178</v>
+      </c>
+      <c r="P9" s="10">
+        <f t="shared" ref="P9:P25" si="3">((L9-G9)/G9)*100</f>
+        <v>230.38271604938271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>1263</v>
@@ -1284,16 +1428,32 @@
         <v>1905</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L10" s="15">
+        <v>10619.33</v>
+      </c>
+      <c r="M10" s="13">
+        <v>4</v>
+      </c>
+      <c r="N10" s="13">
+        <v>701</v>
+      </c>
+      <c r="O10" s="13">
+        <v>689</v>
+      </c>
+      <c r="P10" s="10">
+        <f t="shared" si="3"/>
+        <v>457.44514435695532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>25</v>
-      </c>
-      <c r="K10" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>878</v>
@@ -1314,16 +1474,32 @@
         <v>1010</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L11" s="15">
+        <v>8307.09</v>
+      </c>
+      <c r="M11" s="13">
+        <v>3</v>
+      </c>
+      <c r="N11" s="13">
+        <v>267</v>
+      </c>
+      <c r="O11" s="13">
+        <v>417</v>
+      </c>
+      <c r="P11" s="10">
+        <f t="shared" si="3"/>
+        <v>722.48415841584165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>331</v>
@@ -1344,16 +1520,32 @@
         <v>376</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L12" s="15">
+        <v>20829.22</v>
+      </c>
+      <c r="M12" s="13">
+        <v>4</v>
+      </c>
+      <c r="N12" s="13">
+        <v>225</v>
+      </c>
+      <c r="O12" s="13">
+        <v>864</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="3"/>
+        <v>5439.6861702127662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>29</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>246</v>
@@ -1374,16 +1566,32 @@
         <v>260</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L13" s="15">
+        <v>22241.439999999999</v>
+      </c>
+      <c r="M13" s="13">
+        <v>2</v>
+      </c>
+      <c r="N13" s="13">
+        <v>96</v>
+      </c>
+      <c r="O13" s="13">
+        <v>725</v>
+      </c>
+      <c r="P13" s="10">
+        <f t="shared" si="3"/>
+        <v>8454.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>31</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>168</v>
@@ -1404,16 +1612,32 @@
         <v>195</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L14" s="15">
+        <v>782.33</v>
+      </c>
+      <c r="M14" s="13">
+        <v>4</v>
+      </c>
+      <c r="N14" s="13">
+        <v>717</v>
+      </c>
+      <c r="O14" s="13">
+        <v>421</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="3"/>
+        <v>301.1948717948718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>143</v>
@@ -1434,16 +1658,32 @@
         <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L15" s="15">
+        <v>560.66</v>
+      </c>
+      <c r="M15" s="13">
+        <v>4</v>
+      </c>
+      <c r="N15" s="13">
+        <v>238</v>
+      </c>
+      <c r="O15" s="13">
+        <v>182</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="3"/>
+        <v>281.40136054421765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
-      </c>
-      <c r="K15" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>361</v>
@@ -1464,16 +1704,32 @@
         <v>405</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L16" s="15">
+        <v>4213.55</v>
+      </c>
+      <c r="M16" s="13">
+        <v>3</v>
+      </c>
+      <c r="N16" s="13">
+        <v>862</v>
+      </c>
+      <c r="O16" s="13">
+        <v>569</v>
+      </c>
+      <c r="P16" s="10">
+        <f t="shared" si="3"/>
+        <v>940.38271604938279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>420</v>
@@ -1494,16 +1750,32 @@
         <v>708</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L17" s="15">
+        <v>5443.55</v>
+      </c>
+      <c r="M17" s="13">
+        <v>2</v>
+      </c>
+      <c r="N17" s="13">
+        <v>243</v>
+      </c>
+      <c r="O17" s="13">
+        <v>732</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="3"/>
+        <v>668.86299435028252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>39</v>
-      </c>
-      <c r="K17" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>574</v>
@@ -1524,16 +1796,32 @@
         <v>855</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L18" s="15">
+        <v>29990.880000000001</v>
+      </c>
+      <c r="M18" s="13">
+        <v>3</v>
+      </c>
+      <c r="N18" s="13">
+        <v>181</v>
+      </c>
+      <c r="O18" s="13">
+        <v>881</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="3"/>
+        <v>3407.7052631578949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>41</v>
-      </c>
-      <c r="K18" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>666</v>
@@ -1554,16 +1842,32 @@
         <v>800</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L19" s="15">
+        <v>33638.11</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13">
+        <v>613</v>
+      </c>
+      <c r="O19" s="13">
+        <v>840</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="3"/>
+        <v>4104.7637500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
-      </c>
-      <c r="K19" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>413</v>
@@ -1584,16 +1888,32 @@
         <v>416</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L20" s="15">
+        <v>1163.55</v>
+      </c>
+      <c r="M20" s="13">
+        <v>2</v>
+      </c>
+      <c r="N20" s="13">
+        <v>876</v>
+      </c>
+      <c r="O20" s="13">
+        <v>716</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="3"/>
+        <v>179.6995192307692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
-      </c>
-      <c r="K20" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>135</v>
@@ -1605,7 +1925,7 @@
         <v>137</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
         <v>131</v>
@@ -1614,16 +1934,32 @@
         <v>138</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L21" s="15">
+        <v>818.44</v>
+      </c>
+      <c r="M21" s="13">
+        <v>3</v>
+      </c>
+      <c r="N21" s="13">
+        <v>532</v>
+      </c>
+      <c r="O21" s="13">
+        <v>461</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="3"/>
+        <v>493.07246376811599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
-      </c>
-      <c r="K21" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>168</v>
@@ -1644,16 +1980,32 @@
         <v>188</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L22" s="15">
+        <v>3149.11</v>
+      </c>
+      <c r="M22" s="13">
+        <v>3</v>
+      </c>
+      <c r="N22" s="13">
+        <v>894</v>
+      </c>
+      <c r="O22" s="13">
+        <v>849</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="3"/>
+        <v>1575.058510638298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>49</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>355</v>
@@ -1674,16 +2026,32 @@
         <v>572</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L23" s="15">
+        <v>5129</v>
+      </c>
+      <c r="M23" s="13">
+        <v>4</v>
+      </c>
+      <c r="N23" s="13">
+        <v>312</v>
+      </c>
+      <c r="O23" s="13">
+        <v>253</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="3"/>
+        <v>796.67832167832171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>51</v>
-      </c>
-      <c r="K23" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>52</v>
       </c>
       <c r="B24" s="1">
         <v>356</v>
@@ -1704,16 +2072,32 @@
         <v>409</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L24" s="15">
+        <v>28473.22</v>
+      </c>
+      <c r="M24" s="13">
+        <v>3</v>
+      </c>
+      <c r="N24" s="13">
+        <v>146</v>
+      </c>
+      <c r="O24" s="13">
+        <v>204</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="3"/>
+        <v>6861.6674816625919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>53</v>
-      </c>
-      <c r="K24" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>138</v>
@@ -1734,42 +2118,62 @@
         <v>152</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L25" s="15">
+        <v>27891.55</v>
+      </c>
+      <c r="M25" s="13">
+        <v>5</v>
+      </c>
+      <c r="N25" s="13">
+        <v>931</v>
+      </c>
+      <c r="O25" s="13">
+        <v>118</v>
+      </c>
+      <c r="P25" s="10">
+        <f t="shared" si="3"/>
+        <v>18249.70394736842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="10">
-        <f t="shared" si="1"/>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
       </c>
       <c r="B28" s="1">
         <v>2902</v>
@@ -1790,12 +2194,32 @@
         <v>3559</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L28" s="15">
+        <v>9983.9</v>
+      </c>
+      <c r="M28" s="13">
+        <v>2</v>
+      </c>
+      <c r="N28" s="13">
+        <v>183</v>
+      </c>
+      <c r="O28" s="13">
+        <v>431</v>
+      </c>
+      <c r="P28" s="10">
+        <f t="shared" ref="P28:P51" si="4">((L28-G28)/G28)*100</f>
+        <v>180.5254284911492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>1253</v>
@@ -1816,12 +2240,32 @@
         <v>1579</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L29" s="15">
+        <v>3810.77</v>
+      </c>
+      <c r="M29" s="13">
+        <v>4</v>
+      </c>
+      <c r="N29" s="13">
+        <v>482</v>
+      </c>
+      <c r="O29" s="13">
+        <v>967</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="4"/>
+        <v>141.34072197593412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>67</v>
       </c>
       <c r="B30" s="1">
         <v>964</v>
@@ -1842,12 +2286,32 @@
         <v>1663</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L30" s="15">
+        <v>7868.88</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1</v>
+      </c>
+      <c r="N30" s="13">
+        <v>971</v>
+      </c>
+      <c r="O30" s="13">
+        <v>423</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" si="4"/>
+        <v>373.17378232110644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>69</v>
       </c>
       <c r="B31" s="1">
         <v>1630</v>
@@ -1868,12 +2332,35 @@
         <v>2989</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L31" s="15">
+        <v>11903.33</v>
+      </c>
+      <c r="M31" s="13">
+        <v>1</v>
+      </c>
+      <c r="N31" s="13">
+        <v>135</v>
+      </c>
+      <c r="O31" s="13">
+        <v>678</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="4"/>
+        <v>298.23787219805956</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
       </c>
       <c r="B32" s="1">
         <v>4389</v>
@@ -1894,12 +2381,35 @@
         <v>8381</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L32" s="15">
+        <v>91645.66</v>
+      </c>
+      <c r="M32" s="13">
+        <v>3</v>
+      </c>
+      <c r="N32" s="13">
+        <v>572</v>
+      </c>
+      <c r="O32" s="13">
+        <v>253</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="4"/>
+        <v>993.49313924352703</v>
+      </c>
+      <c r="Q32">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>73</v>
       </c>
       <c r="B33" s="1">
         <v>3539</v>
@@ -1920,12 +2430,32 @@
         <v>7039</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L33" s="15">
+        <v>79698.33</v>
+      </c>
+      <c r="M33" s="13">
+        <v>3</v>
+      </c>
+      <c r="N33" s="13">
+        <v>941</v>
+      </c>
+      <c r="O33" s="13">
+        <v>939</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="4"/>
+        <v>1032.2393805938343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>75</v>
       </c>
       <c r="B34" s="1">
         <v>1014</v>
@@ -1946,12 +2476,32 @@
         <v>1142</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L34" s="15">
+        <v>2818</v>
+      </c>
+      <c r="M34" s="13">
+        <v>2</v>
+      </c>
+      <c r="N34" s="13">
+        <v>192</v>
+      </c>
+      <c r="O34" s="13">
+        <v>945</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="4"/>
+        <v>146.76007005253942</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
       </c>
       <c r="B35" s="1">
         <v>490</v>
@@ -1972,12 +2522,35 @@
         <v>520</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L35" s="15">
+        <v>1826.44</v>
+      </c>
+      <c r="M35" s="13">
+        <v>4</v>
+      </c>
+      <c r="N35" s="13">
+        <v>849</v>
+      </c>
+      <c r="O35" s="13">
+        <v>38</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="4"/>
+        <v>251.23846153846156</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>79</v>
       </c>
       <c r="B36" s="1">
         <v>2449</v>
@@ -1998,12 +2571,35 @@
         <v>4408</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L36" s="15">
+        <v>29015.33</v>
+      </c>
+      <c r="M36" s="13">
+        <v>1</v>
+      </c>
+      <c r="N36" s="13">
+        <v>783</v>
+      </c>
+      <c r="O36" s="13">
+        <v>66</v>
+      </c>
+      <c r="P36" s="10">
+        <f t="shared" si="4"/>
+        <v>558.24251361161532</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>81</v>
       </c>
       <c r="B37" s="1">
         <v>2818</v>
@@ -2024,12 +2620,35 @@
         <v>4023</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L37" s="15">
+        <v>29502.66</v>
+      </c>
+      <c r="M37" s="13">
+        <v>3</v>
+      </c>
+      <c r="N37" s="13">
+        <v>830</v>
+      </c>
+      <c r="O37" s="13">
+        <v>46</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="4"/>
+        <v>633.34973900074567</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>83</v>
       </c>
       <c r="B38" s="1">
         <v>758</v>
@@ -2050,12 +2669,35 @@
         <v>1109</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L38" s="15">
+        <v>53289.88</v>
+      </c>
+      <c r="M38" s="13">
+        <v>4</v>
+      </c>
+      <c r="N38" s="13">
+        <v>726</v>
+      </c>
+      <c r="O38" s="13">
+        <v>446</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="4"/>
+        <v>4705.21911632101</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>85</v>
       </c>
       <c r="B39" s="1">
         <v>1242</v>
@@ -2076,12 +2718,32 @@
         <v>2256</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L39" s="15">
+        <v>48864.22</v>
+      </c>
+      <c r="M39" s="13">
+        <v>2</v>
+      </c>
+      <c r="N39" s="13">
+        <v>617</v>
+      </c>
+      <c r="O39" s="13">
+        <v>884</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="4"/>
+        <v>2065.9671985815603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>87</v>
       </c>
       <c r="B40" s="1">
         <v>720</v>
@@ -2102,12 +2764,32 @@
         <v>913</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L40" s="15">
+        <v>2893.11</v>
+      </c>
+      <c r="M40" s="13">
+        <v>2</v>
+      </c>
+      <c r="N40" s="13">
+        <v>348</v>
+      </c>
+      <c r="O40" s="13">
+        <v>439</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="4"/>
+        <v>216.87951807228916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>89</v>
       </c>
       <c r="B41" s="1">
         <v>843</v>
@@ -2128,12 +2810,20 @@
         <v>956</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>1008</v>
@@ -2154,12 +2844,20 @@
         <v>1538</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>93</v>
       </c>
       <c r="B43" s="1">
         <v>626</v>
@@ -2180,12 +2878,20 @@
         <v>843</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>95</v>
       </c>
       <c r="B44" s="1">
         <v>649</v>
@@ -2206,12 +2912,20 @@
         <v>972</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>97</v>
       </c>
       <c r="B45" s="1">
         <v>955</v>
@@ -2232,12 +2946,20 @@
         <v>1656</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>99</v>
       </c>
       <c r="B46" s="1">
         <v>616</v>
@@ -2258,12 +2980,20 @@
         <v>730</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>101</v>
       </c>
       <c r="B47" s="1">
         <v>278</v>
@@ -2284,12 +3014,20 @@
         <v>310</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>103</v>
       </c>
       <c r="B48" s="1">
         <v>1098</v>
@@ -2310,12 +3048,20 @@
         <v>1723</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P48" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>105</v>
       </c>
       <c r="B49" s="1">
         <v>314</v>
@@ -2338,10 +3084,18 @@
       <c r="H49" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1">
         <v>258</v>
@@ -2362,12 +3116,20 @@
         <v>312</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>108</v>
       </c>
       <c r="B51" s="1">
         <v>476</v>
@@ -2388,38 +3150,46 @@
         <v>855</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>111</v>
       </c>
       <c r="B54" s="1">
         <v>1747</v>
@@ -2440,12 +3210,12 @@
         <v>2008</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1">
         <v>858</v>
@@ -2466,12 +3236,12 @@
         <v>1014</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>114</v>
       </c>
       <c r="B56" s="1">
         <v>2506</v>
@@ -2492,12 +3262,12 @@
         <v>3090</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>116</v>
       </c>
       <c r="B57" s="1">
         <v>4923</v>
@@ -2518,12 +3288,12 @@
         <v>7537</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>118</v>
       </c>
       <c r="B58" s="1">
         <v>6656</v>
@@ -2544,12 +3314,12 @@
         <v>12951</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>120</v>
       </c>
       <c r="B59" s="1">
         <v>5705</v>
@@ -2558,10 +3328,10 @@
         <v>1190</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F59" s="1">
         <v>928</v>
@@ -2570,12 +3340,12 @@
         <v>9435</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>123</v>
       </c>
       <c r="B60" s="1">
         <v>2388</v>
@@ -2596,12 +3366,12 @@
         <v>2708</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>125</v>
       </c>
       <c r="B61" s="1">
         <v>2970</v>
@@ -2622,12 +3392,12 @@
         <v>3318</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1">
         <v>5571</v>
@@ -2648,12 +3418,12 @@
         <v>9697</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>128</v>
       </c>
       <c r="B63" s="1">
         <v>5496</v>
@@ -2674,12 +3444,12 @@
         <v>8152</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>130</v>
       </c>
       <c r="B64" s="1">
         <v>3538</v>
@@ -2700,12 +3470,12 @@
         <v>6732</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B65" s="1">
         <v>1344</v>
@@ -2726,12 +3496,12 @@
         <v>2516</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66" s="1">
         <v>1515</v>
@@ -2740,10 +3510,10 @@
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1">
         <v>114</v>
@@ -2752,12 +3522,12 @@
         <v>1913</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="1">
         <v>1375</v>
@@ -2778,12 +3548,12 @@
         <v>1594</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1">
         <v>2507</v>
@@ -2804,12 +3574,12 @@
         <v>4147</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1">
         <v>1633</v>
@@ -2818,10 +3588,10 @@
         <v>154</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" s="1">
         <v>197</v>
@@ -2830,12 +3600,12 @@
         <v>1916</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1">
         <v>3003</v>
@@ -2856,12 +3626,12 @@
         <v>5968</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1">
         <v>2740</v>
@@ -2870,10 +3640,10 @@
         <v>865</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="1">
         <v>358</v>
@@ -2882,12 +3652,12 @@
         <v>3788</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1">
         <v>1194</v>
@@ -2908,12 +3678,12 @@
         <v>1271</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1">
         <v>734</v>
@@ -2934,12 +3704,12 @@
         <v>857</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="1">
         <v>2177</v>
@@ -2960,12 +3730,12 @@
         <v>3377</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="1">
         <v>2643</v>
@@ -2986,12 +3756,12 @@
         <v>5014</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1">
         <v>2462</v>
@@ -3012,12 +3782,12 @@
         <v>6237</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1">
         <v>1226</v>
@@ -3026,10 +3796,10 @@
         <v>392</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F77" s="1">
         <v>129</v>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documentos\IFNMG\TCC\Desenvolvimento_TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10FBE3-6F19-44C0-9960-F0CEB6C8C54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646195F9-D891-4CE2-9FCF-BF5E1143EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="309">
   <si>
     <t>BRKGA</t>
   </si>
@@ -960,7 +960,10 @@
     <t>v2 + gliffler</t>
   </si>
   <si>
-    <t>V2G % G</t>
+    <t>v2G ~ G</t>
+  </si>
+  <si>
+    <t>V2+G % G</t>
   </si>
 </sst>
 </file>
@@ -7899,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BCFD6-D5E4-4B60-8194-9ED1C2C22A4C}">
   <dimension ref="A1:AX78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ79" sqref="AJ79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,19 +7911,24 @@
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="19" customWidth="1"/>
-    <col min="11" max="12" width="10.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="10.140625" style="19" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.28515625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="19" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="22"/>
+    <col min="16" max="16" width="9.28515625" style="19" customWidth="1"/>
+    <col min="17" max="18" width="9.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="0" style="22" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="9.28515625" style="19" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="19" customWidth="1"/>
-    <col min="29" max="32" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" style="19" customWidth="1"/>
+    <col min="26" max="27" width="9.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="19" hidden="1" customWidth="1"/>
+    <col min="29" max="32" width="9.140625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="9.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -8055,8 +8063,11 @@
       <c r="AK2" s="20" t="s">
         <v>160</v>
       </c>
+      <c r="AL2" s="20" t="s">
+        <v>307</v>
+      </c>
       <c r="AM2" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN2" s="20" t="s">
         <v>155</v>
@@ -11464,6 +11475,27 @@
       <c r="AG28" s="24" t="s">
         <v>260</v>
       </c>
+      <c r="AH28" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI28" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ28" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK28" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL28" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM28" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN28" s="20" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -14866,6 +14898,27 @@
       </c>
       <c r="AG54" s="24" t="s">
         <v>261</v>
+      </c>
+      <c r="AH54" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="AI54" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ54" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="AK54" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL54" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM54" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN54" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.25">

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documentos\IFNMG\TCC\Desenvolvimento_TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646195F9-D891-4CE2-9FCF-BF5E1143EC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741A273-513F-4DE8-9E6B-DE17FA1F49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7902,8 +7902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BCFD6-D5E4-4B60-8194-9ED1C2C22A4C}">
   <dimension ref="A1:AX78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ79" sqref="AJ79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\OneDrive\Documentos\IFNMG\TCC\Desenvolvimento_TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E625AA21-1375-4B54-8564-E87D7AF10E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8855B8-1734-40D1-9E1E-BA39DED704BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="4" r:id="rId3"/>
-    <sheet name="Planilha4" sheetId="6" r:id="rId4"/>
-    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
-    <sheet name="Planilha5" sheetId="7" r:id="rId6"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="317">
   <si>
     <t>BRKGA</t>
   </si>
@@ -975,6 +973,21 @@
   </si>
   <si>
     <t>V3 % G</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1195,17 +1208,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7949,7 +7961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BCFD6-D5E4-4B60-8194-9ED1C2C22A4C}">
   <dimension ref="A1:BN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AM37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AX30" sqref="AX30"/>
     </sheetView>
   </sheetViews>
@@ -7969,7 +7981,7 @@
     <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="9.28515625" style="19" customWidth="1"/>
     <col min="28" max="28" width="10.28515625" style="34" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" style="37" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="10.28515625" style="34" hidden="1" customWidth="1"/>
     <col min="31" max="34" width="9.140625" customWidth="1"/>
     <col min="35" max="35" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -8247,7 +8259,7 @@
       <c r="AB3" s="34">
         <v>30.507000000000001</v>
       </c>
-      <c r="AC3" s="37">
+      <c r="AC3">
         <v>30.507000000000001</v>
       </c>
       <c r="AD3" s="34">
@@ -8421,7 +8433,7 @@
       <c r="AB4" s="34">
         <v>14.769</v>
       </c>
-      <c r="AC4" s="37">
+      <c r="AC4">
         <v>14.769</v>
       </c>
       <c r="AD4" s="34">
@@ -8595,7 +8607,7 @@
       <c r="AB5" s="34">
         <v>39.978000000000002</v>
       </c>
-      <c r="AC5" s="37">
+      <c r="AC5">
         <v>39.978000000000002</v>
       </c>
       <c r="AD5" s="34">
@@ -8769,7 +8781,7 @@
       <c r="AB6" s="34">
         <v>46.005000000000003</v>
       </c>
-      <c r="AC6" s="37">
+      <c r="AC6">
         <v>46.005000000000003</v>
       </c>
       <c r="AD6" s="34">
@@ -8943,7 +8955,7 @@
       <c r="AB7" s="34">
         <v>105.44499999999999</v>
       </c>
-      <c r="AC7" s="37">
+      <c r="AC7">
         <v>105.44499999999999</v>
       </c>
       <c r="AD7" s="34">
@@ -9117,7 +9129,7 @@
       <c r="AB8" s="34">
         <v>65.088999999999999</v>
       </c>
-      <c r="AC8" s="37">
+      <c r="AC8">
         <v>65.088999999999999</v>
       </c>
       <c r="AD8" s="34">
@@ -9291,7 +9303,7 @@
       <c r="AB9" s="34">
         <v>19.646000000000001</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9">
         <v>19.646000000000001</v>
       </c>
       <c r="AD9" s="34">
@@ -9465,7 +9477,7 @@
       <c r="AB10" s="34">
         <v>15.696999999999999</v>
       </c>
-      <c r="AC10" s="37">
+      <c r="AC10">
         <v>15.696999999999999</v>
       </c>
       <c r="AD10" s="34">
@@ -9639,7 +9651,7 @@
       <c r="AB11" s="34">
         <v>3.512</v>
       </c>
-      <c r="AC11" s="37">
+      <c r="AC11">
         <v>3.512</v>
       </c>
       <c r="AD11" s="34">
@@ -9813,7 +9825,7 @@
       <c r="AB12" s="34">
         <v>36.395000000000003</v>
       </c>
-      <c r="AC12" s="37">
+      <c r="AC12">
         <v>36.395000000000003</v>
       </c>
       <c r="AD12" s="34">
@@ -9987,7 +9999,7 @@
       <c r="AB13" s="34">
         <v>48.936</v>
       </c>
-      <c r="AC13" s="37">
+      <c r="AC13">
         <v>48.936</v>
       </c>
       <c r="AD13" s="34">
@@ -10161,7 +10173,7 @@
       <c r="AB14" s="34">
         <v>74.769000000000005</v>
       </c>
-      <c r="AC14" s="37">
+      <c r="AC14">
         <v>74.769000000000005</v>
       </c>
       <c r="AD14" s="34">
@@ -10335,7 +10347,7 @@
       <c r="AB15" s="34">
         <v>40.006</v>
       </c>
-      <c r="AC15" s="37">
+      <c r="AC15">
         <v>40.006</v>
       </c>
       <c r="AD15" s="34">
@@ -10509,7 +10521,7 @@
       <c r="AB16" s="34">
         <v>52.398000000000003</v>
       </c>
-      <c r="AC16" s="37">
+      <c r="AC16">
         <v>52.398000000000003</v>
       </c>
       <c r="AD16" s="34">
@@ -10683,7 +10695,7 @@
       <c r="AB17" s="34">
         <v>44.927</v>
       </c>
-      <c r="AC17" s="37">
+      <c r="AC17">
         <v>44.927</v>
       </c>
       <c r="AD17" s="34">
@@ -10857,7 +10869,7 @@
       <c r="AB18" s="34">
         <v>550.024</v>
       </c>
-      <c r="AC18" s="37">
+      <c r="AC18">
         <v>550.024</v>
       </c>
       <c r="AD18" s="34">
@@ -11031,7 +11043,7 @@
       <c r="AB19" s="34">
         <v>44.351999999999997</v>
       </c>
-      <c r="AC19" s="37">
+      <c r="AC19">
         <v>44.351999999999997</v>
       </c>
       <c r="AD19" s="34">
@@ -11205,7 +11217,7 @@
       <c r="AB20" s="34">
         <v>43.865000000000002</v>
       </c>
-      <c r="AC20" s="37">
+      <c r="AC20">
         <v>43.865000000000002</v>
       </c>
       <c r="AD20" s="34">
@@ -11379,7 +11391,7 @@
       <c r="AB21" s="34">
         <v>24.873999999999999</v>
       </c>
-      <c r="AC21" s="37">
+      <c r="AC21">
         <v>24.873999999999999</v>
       </c>
       <c r="AD21" s="34">
@@ -11553,7 +11565,7 @@
       <c r="AB22" s="34">
         <v>13.076000000000001</v>
       </c>
-      <c r="AC22" s="37">
+      <c r="AC22">
         <v>13.076000000000001</v>
       </c>
       <c r="AD22" s="34">
@@ -11727,7 +11739,7 @@
       <c r="AB23" s="34">
         <v>25.111000000000001</v>
       </c>
-      <c r="AC23" s="37">
+      <c r="AC23">
         <v>25.111000000000001</v>
       </c>
       <c r="AD23" s="34">
@@ -11901,7 +11913,7 @@
       <c r="AB24" s="34">
         <v>24.867000000000001</v>
       </c>
-      <c r="AC24" s="37">
+      <c r="AC24">
         <v>24.867000000000001</v>
       </c>
       <c r="AD24" s="34">
@@ -12075,7 +12087,7 @@
       <c r="AB25" s="34">
         <v>81.748999999999995</v>
       </c>
-      <c r="AC25" s="37">
+      <c r="AC25">
         <v>81.748999999999995</v>
       </c>
       <c r="AD25" s="34">
@@ -12249,7 +12261,7 @@
       <c r="AB26" s="34">
         <v>4.3559999999999999</v>
       </c>
-      <c r="AC26" s="37">
+      <c r="AC26">
         <v>4.3559999999999999</v>
       </c>
       <c r="AD26" s="34">
@@ -12413,7 +12425,7 @@
       <c r="AB28" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="AC28" s="38"/>
+      <c r="AC28" s="37"/>
       <c r="AD28" s="33" t="s">
         <v>160</v>
       </c>
@@ -12561,7 +12573,7 @@
       <c r="AB29" s="34">
         <v>3.3130000000000002</v>
       </c>
-      <c r="AC29" s="37">
+      <c r="AC29">
         <v>3.3130000000000002</v>
       </c>
       <c r="AD29" s="34">
@@ -12733,7 +12745,7 @@
       <c r="AB30" s="34">
         <v>30.239000000000001</v>
       </c>
-      <c r="AC30" s="37">
+      <c r="AC30">
         <v>30.239000000000001</v>
       </c>
       <c r="AD30" s="34">
@@ -12905,7 +12917,7 @@
       <c r="AB31" s="34">
         <v>49.323999999999998</v>
       </c>
-      <c r="AC31" s="37">
+      <c r="AC31">
         <v>49.323999999999998</v>
       </c>
       <c r="AD31" s="34">
@@ -13077,7 +13089,7 @@
       <c r="AB32" s="34">
         <v>4.0839999999999996</v>
       </c>
-      <c r="AC32" s="37">
+      <c r="AC32">
         <v>4.0839999999999996</v>
       </c>
       <c r="AD32" s="34">
@@ -13249,7 +13261,7 @@
       <c r="AB33" s="34">
         <v>104.25700000000001</v>
       </c>
-      <c r="AC33" s="37">
+      <c r="AC33">
         <v>104.25700000000001</v>
       </c>
       <c r="AD33" s="34">
@@ -13421,7 +13433,7 @@
       <c r="AB34" s="34">
         <v>101.858</v>
       </c>
-      <c r="AC34" s="37">
+      <c r="AC34">
         <v>101.858</v>
       </c>
       <c r="AD34" s="34">
@@ -13593,7 +13605,7 @@
       <c r="AB35" s="34">
         <v>4.343</v>
       </c>
-      <c r="AC35" s="37">
+      <c r="AC35">
         <v>4.343</v>
       </c>
       <c r="AD35" s="34">
@@ -13765,7 +13777,7 @@
       <c r="AB36" s="34">
         <v>20.442</v>
       </c>
-      <c r="AC36" s="37">
+      <c r="AC36">
         <v>20.442</v>
       </c>
       <c r="AD36" s="34">
@@ -13937,7 +13949,7 @@
       <c r="AB37" s="34">
         <v>100.57899999999999</v>
       </c>
-      <c r="AC37" s="37">
+      <c r="AC37">
         <v>100.57899999999999</v>
       </c>
       <c r="AD37" s="34">
@@ -14109,7 +14121,7 @@
       <c r="AB38" s="34">
         <v>41.039000000000001</v>
       </c>
-      <c r="AC38" s="37">
+      <c r="AC38">
         <v>41.039000000000001</v>
       </c>
       <c r="AD38" s="34">
@@ -14281,7 +14293,7 @@
       <c r="AB39" s="34">
         <v>66.700999999999993</v>
       </c>
-      <c r="AC39" s="37">
+      <c r="AC39">
         <v>66.700999999999993</v>
       </c>
       <c r="AD39" s="34">
@@ -14453,7 +14465,7 @@
       <c r="AB40" s="34">
         <v>81.911000000000001</v>
       </c>
-      <c r="AC40" s="37">
+      <c r="AC40">
         <v>81.911000000000001</v>
       </c>
       <c r="AD40" s="34">
@@ -14625,7 +14637,7 @@
       <c r="AB41" s="34">
         <v>23.472000000000001</v>
       </c>
-      <c r="AC41" s="37">
+      <c r="AC41">
         <v>23.472000000000001</v>
       </c>
       <c r="AD41" s="34">
@@ -14797,7 +14809,7 @@
       <c r="AB42" s="34">
         <v>2.6720000000000002</v>
       </c>
-      <c r="AC42" s="37">
+      <c r="AC42">
         <v>2.6720000000000002</v>
       </c>
       <c r="AD42" s="34">
@@ -14969,7 +14981,7 @@
       <c r="AB43" s="34">
         <v>5.319</v>
       </c>
-      <c r="AC43" s="37">
+      <c r="AC43">
         <v>5.319</v>
       </c>
       <c r="AD43" s="34">
@@ -15141,7 +15153,7 @@
       <c r="AB44" s="34">
         <v>39.122999999999998</v>
       </c>
-      <c r="AC44" s="37">
+      <c r="AC44">
         <v>39.122999999999998</v>
       </c>
       <c r="AD44" s="34">
@@ -15313,7 +15325,7 @@
       <c r="AB45" s="34">
         <v>83.960999999999999</v>
       </c>
-      <c r="AC45" s="37">
+      <c r="AC45">
         <v>83.960999999999999</v>
       </c>
       <c r="AD45" s="34">
@@ -15485,7 +15497,7 @@
       <c r="AB46" s="34">
         <v>88.448999999999998</v>
       </c>
-      <c r="AC46" s="37">
+      <c r="AC46">
         <v>88.448999999999998</v>
       </c>
       <c r="AD46" s="34">
@@ -15657,7 +15669,7 @@
       <c r="AB47" s="34">
         <v>34.962000000000003</v>
       </c>
-      <c r="AC47" s="37">
+      <c r="AC47">
         <v>34.962000000000003</v>
       </c>
       <c r="AD47" s="34">
@@ -15829,7 +15841,7 @@
       <c r="AB48" s="34">
         <v>31.841000000000001</v>
       </c>
-      <c r="AC48" s="37">
+      <c r="AC48">
         <v>31.841000000000001</v>
       </c>
       <c r="AD48" s="34">
@@ -16001,7 +16013,7 @@
       <c r="AB49" s="34">
         <v>116.002</v>
       </c>
-      <c r="AC49" s="37">
+      <c r="AC49">
         <v>116.002</v>
       </c>
       <c r="AD49" s="34">
@@ -16173,7 +16185,7 @@
       <c r="AB50" s="34">
         <v>59.149000000000001</v>
       </c>
-      <c r="AC50" s="37">
+      <c r="AC50">
         <v>59.149000000000001</v>
       </c>
       <c r="AD50" s="34">
@@ -16345,7 +16357,7 @@
       <c r="AB51" s="34">
         <v>98.251000000000005</v>
       </c>
-      <c r="AC51" s="37">
+      <c r="AC51">
         <v>98.251000000000005</v>
       </c>
       <c r="AD51" s="34">
@@ -16517,7 +16529,7 @@
       <c r="AB52" s="34">
         <v>84.126999999999995</v>
       </c>
-      <c r="AC52" s="37">
+      <c r="AC52">
         <v>84.126999999999995</v>
       </c>
       <c r="AD52" s="34">
@@ -16679,7 +16691,7 @@
       <c r="AB54" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="AC54" s="38"/>
+      <c r="AC54" s="37"/>
       <c r="AD54" s="33" t="s">
         <v>160</v>
       </c>
@@ -16827,7 +16839,7 @@
       <c r="AB55" s="34">
         <v>31.949000000000002</v>
       </c>
-      <c r="AC55" s="37">
+      <c r="AC55">
         <v>31.949000000000002</v>
       </c>
       <c r="AD55" s="34">
@@ -16999,7 +17011,7 @@
       <c r="AB56" s="34">
         <v>26.696000000000002</v>
       </c>
-      <c r="AC56" s="37">
+      <c r="AC56">
         <v>26.696000000000002</v>
       </c>
       <c r="AD56" s="34">
@@ -17171,7 +17183,7 @@
       <c r="AB57" s="34">
         <v>62.587000000000003</v>
       </c>
-      <c r="AC57" s="37">
+      <c r="AC57">
         <v>62.587000000000003</v>
       </c>
       <c r="AD57" s="34">
@@ -17343,7 +17355,7 @@
       <c r="AB58" s="34">
         <v>50.118000000000002</v>
       </c>
-      <c r="AC58" s="37">
+      <c r="AC58">
         <v>50.118000000000002</v>
       </c>
       <c r="AD58" s="34">
@@ -17515,7 +17527,7 @@
       <c r="AB59" s="34">
         <v>111.27500000000001</v>
       </c>
-      <c r="AC59" s="37">
+      <c r="AC59">
         <v>111.27500000000001</v>
       </c>
       <c r="AD59" s="34">
@@ -17687,7 +17699,7 @@
       <c r="AB60" s="34">
         <v>132.506</v>
       </c>
-      <c r="AC60" s="37">
+      <c r="AC60">
         <v>132.506</v>
       </c>
       <c r="AD60" s="34">
@@ -17859,7 +17871,7 @@
       <c r="AB61" s="34">
         <v>63.453000000000003</v>
       </c>
-      <c r="AC61" s="37">
+      <c r="AC61">
         <v>63.453000000000003</v>
       </c>
       <c r="AD61" s="34">
@@ -18031,7 +18043,7 @@
       <c r="AB62" s="34">
         <v>32.465000000000003</v>
       </c>
-      <c r="AC62" s="37">
+      <c r="AC62">
         <v>32.465000000000003</v>
       </c>
       <c r="AD62" s="34">
@@ -18203,7 +18215,7 @@
       <c r="AB63" s="34">
         <v>124.506</v>
       </c>
-      <c r="AC63" s="37">
+      <c r="AC63">
         <v>124.506</v>
       </c>
       <c r="AD63" s="34">
@@ -18375,7 +18387,7 @@
       <c r="AB64" s="34">
         <v>105.483</v>
       </c>
-      <c r="AC64" s="37">
+      <c r="AC64">
         <v>105.483</v>
       </c>
       <c r="AD64" s="34">
@@ -18547,7 +18559,7 @@
       <c r="AB65" s="34">
         <v>111.34699999999999</v>
       </c>
-      <c r="AC65" s="37">
+      <c r="AC65">
         <v>111.34699999999999</v>
       </c>
       <c r="AD65" s="34">
@@ -18719,7 +18731,7 @@
       <c r="AB66" s="34">
         <v>97.671999999999997</v>
       </c>
-      <c r="AC66" s="37">
+      <c r="AC66">
         <v>97.671999999999997</v>
       </c>
       <c r="AD66" s="34">
@@ -18891,7 +18903,7 @@
       <c r="AB67" s="34">
         <v>37.828000000000003</v>
       </c>
-      <c r="AC67" s="37">
+      <c r="AC67">
         <v>37.828000000000003</v>
       </c>
       <c r="AD67" s="34">
@@ -19063,7 +19075,7 @@
       <c r="AB68" s="34">
         <v>35.167000000000002</v>
       </c>
-      <c r="AC68" s="37">
+      <c r="AC68">
         <v>35.167000000000002</v>
       </c>
       <c r="AD68" s="34">
@@ -19235,7 +19247,7 @@
       <c r="AB69" s="34">
         <v>87.031999999999996</v>
       </c>
-      <c r="AC69" s="37">
+      <c r="AC69">
         <v>87.031999999999996</v>
       </c>
       <c r="AD69" s="34">
@@ -19407,7 +19419,7 @@
       <c r="AB70" s="34">
         <v>56.527999999999999</v>
       </c>
-      <c r="AC70" s="37">
+      <c r="AC70">
         <v>56.527999999999999</v>
       </c>
       <c r="AD70" s="34">
@@ -19579,7 +19591,7 @@
       <c r="AB71" s="34">
         <v>103.697</v>
       </c>
-      <c r="AC71" s="37">
+      <c r="AC71">
         <v>103.697</v>
       </c>
       <c r="AD71" s="34">
@@ -19751,7 +19763,7 @@
       <c r="AB72" s="34">
         <v>109.33499999999999</v>
       </c>
-      <c r="AC72" s="37">
+      <c r="AC72">
         <v>109.33499999999999</v>
       </c>
       <c r="AD72" s="34">
@@ -19923,7 +19935,7 @@
       <c r="AB73" s="34">
         <v>31.059000000000001</v>
       </c>
-      <c r="AC73" s="37">
+      <c r="AC73">
         <v>31.059000000000001</v>
       </c>
       <c r="AD73" s="34">
@@ -20095,7 +20107,7 @@
       <c r="AB74" s="34">
         <v>29.152000000000001</v>
       </c>
-      <c r="AC74" s="37">
+      <c r="AC74">
         <v>29.152000000000001</v>
       </c>
       <c r="AD74" s="34">
@@ -20267,7 +20279,7 @@
       <c r="AB75" s="34">
         <v>68.275999999999996</v>
       </c>
-      <c r="AC75" s="37">
+      <c r="AC75">
         <v>68.275999999999996</v>
       </c>
       <c r="AD75" s="34">
@@ -20439,7 +20451,7 @@
       <c r="AB76" s="34">
         <v>49.231000000000002</v>
       </c>
-      <c r="AC76" s="37">
+      <c r="AC76">
         <v>49.231000000000002</v>
       </c>
       <c r="AD76" s="34">
@@ -20611,7 +20623,7 @@
       <c r="AB77" s="34">
         <v>114.916</v>
       </c>
-      <c r="AC77" s="37">
+      <c r="AC77">
         <v>114.916</v>
       </c>
       <c r="AD77" s="34">
@@ -20782,7 +20794,7 @@
       <c r="AB78" s="34">
         <v>119.821</v>
       </c>
-      <c r="AC78" s="37">
+      <c r="AC78">
         <v>119.821</v>
       </c>
       <c r="AD78" s="34">
@@ -20868,23 +20880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83328B69-DF3F-45D9-ACCE-8AB412196A0F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050DBC2-53C3-44C0-AFE4-F1F0F29FBC79}">
+  <dimension ref="B5:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B050DBC2-53C3-44C0-AFE4-F1F0F29FBC79}">
-  <dimension ref="B5:N17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20893,102 +20893,106 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="25">
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27">
+        <v>2</v>
+      </c>
+      <c r="H5" s="27">
+        <v>2</v>
+      </c>
+      <c r="I5" s="27">
+        <v>2</v>
+      </c>
+      <c r="J5" s="27">
+        <v>2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>2</v>
+      </c>
+      <c r="L5" s="28">
+        <v>3</v>
+      </c>
+      <c r="M5" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="25">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F6" s="25">
         <v>2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G6" s="25">
         <v>3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H6" s="25">
         <v>4</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I6" s="25">
         <v>5</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J6" s="25">
         <v>6</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K6" s="25">
         <v>7</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L6" s="25">
         <v>8</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M6" s="25">
         <v>9</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N6" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="25">
+    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="25">
         <v>0</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-    </row>
-    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="25">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0</v>
-      </c>
-      <c r="N7" s="29"/>
-    </row>
-    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
       <c r="C8" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="25">
         <v>0</v>
@@ -20999,8 +21003,8 @@
       <c r="I8" s="25">
         <v>0</v>
       </c>
-      <c r="J8" s="25">
-        <v>0</v>
+      <c r="J8" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="K8" s="25">
         <v>0</v>
@@ -21011,19 +21015,23 @@
       <c r="M8" s="25">
         <v>0</v>
       </c>
-      <c r="N8" s="29"/>
+      <c r="N8" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
       <c r="C9" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
@@ -21031,8 +21039,8 @@
       <c r="H9" s="25">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
-        <v>0</v>
+      <c r="I9" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="J9" s="25">
         <v>0</v>
@@ -21046,25 +21054,29 @@
       <c r="M9" s="25">
         <v>0</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
       <c r="C10" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
-        <v>0</v>
+      <c r="H10" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="I10" s="25">
         <v>0</v>
@@ -21081,12 +21093,16 @@
       <c r="M10" s="25">
         <v>0</v>
       </c>
-      <c r="N10" s="29"/>
+      <c r="N10" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="28">
+        <v>3</v>
+      </c>
       <c r="C11" s="25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="25">
@@ -21095,8 +21111,8 @@
       <c r="F11" s="25">
         <v>0</v>
       </c>
-      <c r="G11" s="25">
-        <v>0</v>
+      <c r="G11" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="H11" s="25">
         <v>0</v>
@@ -21111,24 +21127,28 @@
         <v>0</v>
       </c>
       <c r="L11" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="25">
-        <v>0</v>
-      </c>
-      <c r="N11" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="28">
+        <v>3</v>
+      </c>
       <c r="C12" s="25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="25">
         <v>0</v>
       </c>
-      <c r="F12" s="25">
-        <v>0</v>
+      <c r="F12" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
@@ -21146,39 +21166,43 @@
         <v>0</v>
       </c>
       <c r="L12" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="25">
-        <v>0</v>
-      </c>
-      <c r="N12" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="27">
+        <v>2</v>
+      </c>
       <c r="C13" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="25">
         <v>0</v>
       </c>
-      <c r="F13" s="25">
-        <v>0</v>
+      <c r="F13" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="G13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" s="25">
         <v>0</v>
@@ -21186,34 +21210,38 @@
       <c r="M13" s="25">
         <v>0</v>
       </c>
-      <c r="N13" s="29"/>
+      <c r="N13" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
+      <c r="B14" s="27">
+        <v>2</v>
+      </c>
       <c r="C14" s="25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="25">
-        <v>0</v>
+      <c r="F14" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="G14" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="25">
         <v>0</v>
@@ -21221,84 +21249,152 @@
       <c r="M14" s="25">
         <v>0</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="29" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="27">
+        <v>2</v>
+      </c>
       <c r="C15" s="25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="25">
         <v>0</v>
       </c>
-      <c r="F15" s="25">
-        <v>0</v>
+      <c r="F15" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="G15" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="25">
         <v>0</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
+        <v>2</v>
+      </c>
+      <c r="C16" s="25">
+        <v>9</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="25">
+        <v>2</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" s="25">
         <v>0</v>
       </c>
-      <c r="N15" s="29"/>
-    </row>
-    <row r="16" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="25">
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="25">
         <v>10</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-    </row>
-    <row r="17" spans="5:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="D17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="21" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="25">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="25">
+        <v>5.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2773F724-CF7A-4F4D-A6FE-58AF894E9666}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>